--- a/programer-大学实验室篇.xlsx
+++ b/programer-大学实验室篇.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="7700" yWindow="40" windowWidth="25600" windowHeight="13700" tabRatio="500"/>
+    <workbookView xWindow="7695" yWindow="45" windowWidth="25605" windowHeight="13695" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -246,8 +246,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -273,6 +273,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -405,6 +406,15 @@
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -414,24 +424,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="7">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -759,487 +760,488 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
-    <col min="4" max="4" width="13.33203125" customWidth="1"/>
+    <col min="1" max="1" width="12" customWidth="1"/>
+    <col min="4" max="4" width="13.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="3"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="6"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5" t="s">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-    </row>
-    <row r="4" spans="1:8" ht="65">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6" t="s">
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:8" ht="60">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-    </row>
-    <row r="5" spans="1:8" ht="52">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6" t="s">
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" spans="1:8" ht="48">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-    </row>
-    <row r="6" spans="1:8" ht="62" customHeight="1">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6" t="s">
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" spans="1:8" ht="62.1" customHeight="1">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-    </row>
-    <row r="7" spans="1:8" ht="26">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6" t="s">
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+    </row>
+    <row r="7" spans="1:8" ht="24">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-    </row>
-    <row r="8" spans="1:8" ht="52">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6" t="s">
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" spans="1:8" ht="48">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-    </row>
-    <row r="9" spans="1:8" ht="71" customHeight="1">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6" t="s">
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+    </row>
+    <row r="9" spans="1:8" ht="71.099999999999994" customHeight="1">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6" t="s">
+      <c r="E9" s="3"/>
+      <c r="F9" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-    </row>
-    <row r="10" spans="1:8" ht="39">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6" t="s">
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+    </row>
+    <row r="10" spans="1:8" ht="36">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6" t="s">
+      <c r="C10" s="3"/>
+      <c r="D10" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6" t="s">
+      <c r="E10" s="3"/>
+      <c r="F10" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-    </row>
-    <row r="11" spans="1:8" ht="26">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6" t="s">
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+    </row>
+    <row r="11" spans="1:8" ht="24">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6" t="s">
+      <c r="C11" s="3"/>
+      <c r="D11" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6" t="s">
+      <c r="E11" s="3"/>
+      <c r="F11" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-    </row>
-    <row r="12" spans="1:8" ht="52">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6" t="s">
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+    </row>
+    <row r="12" spans="1:8" ht="36">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6" t="s">
+      <c r="C12" s="3"/>
+      <c r="D12" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6" t="s">
+      <c r="E12" s="3"/>
+      <c r="F12" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6" t="s">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6" t="s">
+      <c r="C13" s="3"/>
+      <c r="D13" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-    </row>
-    <row r="14" spans="1:8" ht="26">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6" t="s">
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+    </row>
+    <row r="14" spans="1:8" ht="24">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6" t="s">
+      <c r="C14" s="3"/>
+      <c r="D14" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-    </row>
-    <row r="15" spans="1:8" ht="39">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6" t="s">
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+    </row>
+    <row r="15" spans="1:8" ht="24">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6" t="s">
+      <c r="E15" s="3"/>
+      <c r="F15" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-    </row>
-    <row r="16" spans="1:8" ht="46" customHeight="1">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6" t="s">
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+    </row>
+    <row r="16" spans="1:8" ht="45.95" customHeight="1">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6" t="s">
+      <c r="E16" s="3"/>
+      <c r="F16" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6" t="s">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6" t="s">
+      <c r="C17" s="3"/>
+      <c r="D17" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-    </row>
-    <row r="18" spans="1:8" ht="26">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6" t="s">
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+    </row>
+    <row r="18" spans="1:8" ht="24">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6" t="s">
+      <c r="C18" s="3"/>
+      <c r="D18" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6" t="s">
+      <c r="E18" s="3"/>
+      <c r="F18" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-    </row>
-    <row r="19" spans="1:8" ht="28" customHeight="1">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6" t="s">
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+    </row>
+    <row r="19" spans="1:8" ht="27.95" customHeight="1">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6" t="s">
+      <c r="C19" s="3"/>
+      <c r="D19" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6" t="s">
+      <c r="E19" s="3"/>
+      <c r="F19" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-    </row>
-    <row r="20" spans="1:8" ht="65">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6" t="s">
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+    </row>
+    <row r="20" spans="1:8" ht="60">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6" t="s">
+      <c r="C20" s="3"/>
+      <c r="D20" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
     </row>
     <row r="21" spans="1:8" ht="147" customHeight="1">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6" t="s">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6" t="s">
+      <c r="C21" s="3"/>
+      <c r="D21" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6" t="s">
+      <c r="E21" s="3"/>
+      <c r="F21" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-    </row>
-    <row r="22" spans="1:8" ht="26">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6" t="s">
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+    </row>
+    <row r="22" spans="1:8" ht="24">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6" t="s">
+      <c r="C22" s="3"/>
+      <c r="D22" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="6"/>
-      <c r="B23" s="6" t="s">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6" t="s">
+      <c r="C23" s="3"/>
+      <c r="D23" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-    </row>
-    <row r="24" spans="1:8" ht="39">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6" t="s">
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+    </row>
+    <row r="24" spans="1:8" ht="24">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6" t="s">
+      <c r="C24" s="3"/>
+      <c r="D24" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-    </row>
-    <row r="25" spans="1:8" ht="109" customHeight="1">
-      <c r="A25" s="6"/>
-      <c r="B25" s="6" t="s">
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+    </row>
+    <row r="25" spans="1:8" ht="108.95" customHeight="1">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="D25" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6" t="s">
+      <c r="E25" s="3"/>
+      <c r="F25" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="6"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="6"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="6"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="6"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="6"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="6"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="6"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1247,7 +1249,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
